--- a/Self_Rating.xlsx
+++ b/Self_Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geetha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B37C5-C8C1-4F4E-ADE3-0B5E00D6D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320211B3-33DC-4499-88A0-76013F095C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA550835-A2D5-47A0-8973-EDE45623BAF7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>C Programming:</t>
   </si>
@@ -362,9 +362,6 @@
     </r>
   </si>
   <si>
-    <t>create node,create front,middle,last nodes and delete node(f,m,l)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -482,9 +479,6 @@
     </r>
   </si>
   <si>
-    <t>S_C:For determining the scope,lifetime, initial value, and memory location of any given variable.                                                  Linkage:The Linker links the files together in the linking stage of compilation process. Auto,Register,Static,Extern                      Internal and External Linkage</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -530,6 +524,242 @@
     <t>programs on different storage classes and observe the behaviour of variables</t>
   </si>
   <si>
+    <t>A small integrated circuit that combines a microprocessor core, memory, and peripheral devices such as input/output ports, timers, and analog-to-digital converters. It is designed to perform specific tasks and control functions in embedded systems.</t>
+  </si>
+  <si>
+    <t>To  perform specific tasks and control functions in embedded systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Peripherals and protocols </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S_C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:For determining the scope,lifetime, initial value, and memory location of any given variable.                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linkage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:The Linker links the files together in the linking stage of compilation process. Auto,Register,Static,Extern                      Internal and External Linkage</t>
+    </r>
+  </si>
+  <si>
+    <t>set of steps that must be followed to solve any problem</t>
+  </si>
+  <si>
+    <t>For better understanding and breaking the code into small blocks</t>
+  </si>
+  <si>
+    <t>writing all programs by  writing algorithms first</t>
+  </si>
+  <si>
+    <t>GPIO stands to General Purpose Input Output, and is responsible to control or read the state of a specific pin in the digital world.</t>
+  </si>
+  <si>
+    <t>To write and read the pin state.</t>
+  </si>
+  <si>
+    <t>pointer is a variable that holds the address of another variable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamic memory allocation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:malloc,calloc and relloc.                                                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: opening a file -returns file pointer and further access will be do through file pointer.                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reference:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No need to pass long data into function call,just address of starting memory will be passed into function that save CPU power and allow fast access.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Return-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Function returns one value ,if we need to access multiple data from fucntion,this is possible by using pointers.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A variable  pointing to a address of a function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic and advanced programs.                 </t>
+  </si>
+  <si>
+    <t>2-&gt;3</t>
+  </si>
+  <si>
+    <t>2-&gt;3.1</t>
+  </si>
+  <si>
+    <t>calling function in runtime ,based</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -548,18 +778,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:to  include header files in present working file.                                        </t>
-    </r>
-  </si>
-  <si>
-    <t>To run a single dedicated low-power application.</t>
+      <t xml:space="preserve">:to  include header files in present working file.                                                              Conditional compilation helps to compile a specific portion of the program or skip the compilation of some specific part of the program based on some conditions.                                  </t>
+    </r>
+  </si>
+  <si>
+    <t>3-&gt;3.1</t>
+  </si>
+  <si>
+    <t>Programs on #If,#elif,#else,#ifdef,#ifndef,#endif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +830,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,7 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -704,29 +950,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,8 +959,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,44 +1306,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB1336-DA1B-4FB4-9838-B5D8F09586B4}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="99" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="3"/>
-    <col min="3" max="3" width="1.7265625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16"/>
+    <col min="3" max="3" width="1.7265625" style="21" customWidth="1"/>
     <col min="4" max="4" width="35.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="32.1796875" style="4" customWidth="1"/>
     <col min="7" max="9" width="9.1796875" style="5"/>
     <col min="10" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="65" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1099,54 +1351,71 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="14">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="52" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="14">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="156" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1154,287 +1423,337 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="104" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="17" t="s">
-        <v>61</v>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="17" t="s">
         <v>59</v>
       </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="19"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="117" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18" t="s">
-        <v>67</v>
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="65" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="14">
         <v>4</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="17" t="s">
-        <v>69</v>
+      <c r="C12" s="19"/>
+      <c r="D12" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="14">
+        <v>4</v>
+      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="117" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="65" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="14">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="14">
+        <v>4</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>0</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="19"/>
     </row>
     <row r="35" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>2</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>3</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>4</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
